--- a/DailyRecord/2019年/工作计划 - 2019.xlsx
+++ b/DailyRecord/2019年/工作计划 - 2019.xlsx
@@ -412,7 +412,8 @@
   <si>
     <t>1、点亮LED实验
 2、串口实验
-3、printf重定向---使用微库测试成功，不使用微库未测试成功</t>
+3、printf重定向---使用微库测试成功，不使用微库未测试成功
+4、复习STM32时钟</t>
   </si>
   <si>
     <t>一、外部中断实验
@@ -448,10 +449,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -477,19 +478,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,18 +499,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,8 +530,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,40 +568,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,11 +592,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -641,13 +642,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +672,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,7 +720,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,133 +816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,6 +897,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -913,9 +923,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,26 +956,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -978,6 +970,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -986,149 +987,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1164,9 +1165,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1578,19 +1576,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1757,19 +1755,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1910,7 +1908,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="7"/>
@@ -1926,7 +1924,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="24"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="8"/>
     </row>
     <row r="4" ht="13.95" customHeight="1" spans="1:10">
@@ -1940,7 +1938,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="24"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10">
@@ -1954,7 +1952,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="24"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10">
@@ -1968,7 +1966,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="24"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:12">
@@ -1982,15 +1980,15 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="24"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="8"/>
-      <c r="L7" s="25"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="4">
@@ -2008,7 +2006,7 @@
     </row>
     <row r="9" ht="129.6" spans="1:10">
       <c r="A9" s="8"/>
-      <c r="B9" s="20"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="4">
         <v>43536</v>
       </c>
@@ -2026,7 +2024,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="8"/>
-      <c r="B10" s="20"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="4">
         <v>43537</v>
       </c>
@@ -2037,11 +2035,11 @@
       <c r="H10" s="6"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="L10" s="25"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8"/>
-      <c r="B11" s="20"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="4">
         <v>43538</v>
       </c>
@@ -2055,7 +2053,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8"/>
-      <c r="B12" s="20"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="4">
         <v>43539</v>
       </c>
@@ -2069,7 +2067,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="4">
         <v>43540</v>
       </c>
@@ -2083,7 +2081,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="9"/>
-      <c r="B14" s="21"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="4">
         <v>43541</v>
       </c>
@@ -2099,7 +2097,7 @@
       <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="4">
@@ -2117,7 +2115,7 @@
     </row>
     <row r="16" ht="43.2" spans="1:10">
       <c r="A16" s="8"/>
-      <c r="B16" s="20"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="4">
         <v>43543</v>
       </c>
@@ -2135,7 +2133,7 @@
     </row>
     <row r="17" ht="172.8" spans="1:10">
       <c r="A17" s="8"/>
-      <c r="B17" s="20"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="4">
         <v>43544</v>
       </c>
@@ -2153,11 +2151,11 @@
     </row>
     <row r="18" ht="201.6" spans="1:10">
       <c r="A18" s="8"/>
-      <c r="B18" s="20"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="4">
         <v>43545</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="6"/>
@@ -2169,7 +2167,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="4">
         <v>43546</v>
       </c>
@@ -2185,7 +2183,7 @@
     </row>
     <row r="20" ht="57.6" spans="1:10">
       <c r="A20" s="8"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="4">
         <v>43547</v>
       </c>
@@ -2203,7 +2201,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="9"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="4">
         <v>43548</v>
       </c>
@@ -2418,7 +2416,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="23"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="7"/>
     </row>
     <row r="3" ht="57.6" spans="1:10">
@@ -2434,7 +2432,7 @@
         <v>60</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="24"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10">
@@ -2448,7 +2446,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="24"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" ht="43.2" spans="1:10">
@@ -2464,7 +2462,7 @@
         <v>61</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="24"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10">
@@ -2478,7 +2476,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="24"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" ht="43.2" spans="1:10">
@@ -2496,7 +2494,7 @@
         <v>63</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="24"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10">
@@ -2510,14 +2508,14 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="24"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="4">
         <v>43198</v>
       </c>
@@ -2531,7 +2529,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="8"/>
-      <c r="B10" s="20"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="4">
         <v>43199</v>
       </c>
@@ -2545,7 +2543,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8"/>
-      <c r="B11" s="20"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="4">
         <v>43200</v>
       </c>
@@ -2559,7 +2557,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8"/>
-      <c r="B12" s="20"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="4">
         <v>43201</v>
       </c>
@@ -2573,7 +2571,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="4">
         <v>43202</v>
       </c>
@@ -2587,7 +2585,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="8"/>
-      <c r="B14" s="20"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="4">
         <v>43203</v>
       </c>
@@ -2601,7 +2599,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="9"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="4">
         <v>43204</v>
       </c>
@@ -2617,7 +2615,7 @@
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="4">
@@ -2633,7 +2631,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="8"/>
-      <c r="B17" s="20"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="4">
         <v>43206</v>
       </c>
@@ -2647,7 +2645,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8"/>
-      <c r="B18" s="20"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="4">
         <v>43207</v>
       </c>
@@ -2661,11 +2659,11 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="4">
         <v>43208</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -2675,7 +2673,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="8"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="4">
         <v>43209</v>
       </c>
@@ -2689,7 +2687,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="8"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="4">
         <v>43210</v>
       </c>
@@ -2703,7 +2701,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="9"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="4">
         <v>43211</v>
       </c>
@@ -2880,7 +2878,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="15"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2888,11 +2886,11 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="18"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="16"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2900,11 +2898,11 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2912,11 +2910,11 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="18"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2924,11 +2922,11 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="18"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="16"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2936,11 +2934,11 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="18"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -2948,11 +2946,11 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="18"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2960,11 +2958,11 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="18"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -2972,11 +2970,11 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="18"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2984,11 +2982,11 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="18"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -2996,8 +2994,8 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3032,7 +3030,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3096,18 +3094,18 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="6" t="s">
         <v>71</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="15"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" ht="57.6" spans="1:11">
-      <c r="A3" s="13"/>
+    <row r="3" ht="72" spans="1:11">
+      <c r="A3" s="12"/>
       <c r="B3" s="11" t="s">
         <v>64</v>
       </c>
@@ -3119,16 +3117,16 @@
         <v>74</v>
       </c>
       <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="6" t="s">
         <v>75</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="16"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="13"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3137,11 +3135,11 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="16"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:11">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -3150,11 +3148,11 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="16"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="13"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -3163,11 +3161,11 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="16"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -3176,11 +3174,11 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="16"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -3189,11 +3187,11 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="16"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -3202,11 +3200,11 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="16"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -3215,11 +3213,11 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="16"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="14"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -3228,7 +3226,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="2"/>
     </row>
   </sheetData>

--- a/DailyRecord/2019年/工作计划 - 2019.xlsx
+++ b/DailyRecord/2019年/工作计划 - 2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
   <si>
     <t>序号</t>
   </si>
@@ -413,17 +413,20 @@
     <t>1、点亮LED实验
 2、串口实验
 3、printf重定向---使用微库测试成功，不使用微库未测试成功
-4、复习STM32时钟</t>
-  </si>
-  <si>
-    <t>一、外部中断实验
-1、按键触发中断
-2、中断内部printf打印</t>
+4、复习STM32时钟
+5、完成外部中断实验</t>
   </si>
   <si>
     <t>一、STM32 外部中断
 1、外部中断映射
-2、外部中断的配置</t>
+2、外部中断的配置
+二、关于SYSTICK的延时
+1、SYSTICK的时钟来源：AHB时钟8分频时钟
+2、注意delay_ms的最大时延
+3、fac_us,fac_ms为一微秒和一毫秒需要的时钟周期，有可能存在不整除的情况（外部时钟为8的倍数没有此情况）。
+三、独立看门狗
+1、独立看门狗的配置步骤
+2、独立看门狗的溢出时间计算</t>
   </si>
   <si>
     <t>注意事项</t>
@@ -449,10 +452,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -478,8 +481,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,13 +498,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,15 +512,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -524,7 +520,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,22 +543,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,7 +566,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,17 +588,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,6 +607,14 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -648,19 +651,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,13 +675,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,13 +705,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +735,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,25 +789,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,60 +820,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,22 +904,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,15 +915,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -952,6 +931,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,6 +973,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -987,10 +990,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -999,133 +1002,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3029,8 +3032,8 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F19" sqref="F17:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3039,7 +3042,7 @@
     <col min="2" max="2" width="15.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="47.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="27.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="16.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="51.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="12.6666666666667" customWidth="1"/>
@@ -3104,7 +3107,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" ht="72" spans="1:11">
+    <row r="3" ht="172.8" spans="1:11">
       <c r="A3" s="12"/>
       <c r="B3" s="11" t="s">
         <v>64</v>
@@ -3113,12 +3116,10 @@
       <c r="D3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="E3" s="6"/>
       <c r="F3" s="11"/>
       <c r="G3" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -3297,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>33</v>
@@ -3399,7 +3400,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -3412,13 +3413,13 @@
         <v>43382</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="8"/>

--- a/DailyRecord/2019年/工作计划 - 2019.xlsx
+++ b/DailyRecord/2019年/工作计划 - 2019.xlsx
@@ -414,7 +414,9 @@
 2、串口实验
 3、printf重定向---使用微库测试成功，不使用微库未测试成功
 4、复习STM32时钟
-5、完成外部中断实验</t>
+5、完成外部中断实验
+6、完成窗口看门狗实验
+7、完成通用定时器中断实验</t>
   </si>
   <si>
     <t>一、STM32 外部中断
@@ -426,7 +428,12 @@
 3、fac_us,fac_ms为一微秒和一毫秒需要的时钟周期，有可能存在不整除的情况（外部时钟为8的倍数没有此情况）。
 三、独立看门狗
 1、独立看门狗的配置步骤
-2、独立看门狗的溢出时间计算</t>
+2、独立看门狗的溢出时间计算
+四、窗口看门狗
+1、窗口看门狗的工作过程
+2、窗口看门狗的配置步骤
+五、通用定时器
+1、通用定时器的配置步骤与溢出时间计算</t>
   </si>
   <si>
     <t>注意事项</t>
@@ -453,9 +460,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -481,67 +488,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -550,7 +496,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,17 +510,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,8 +541,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,10 +588,40 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -645,25 +652,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,109 +694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,7 +712,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,7 +760,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,7 +802,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,56 +892,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -967,9 +924,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,6 +941,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -990,10 +997,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,133 +1009,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3032,8 +3039,8 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F19" sqref="F17:F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3107,7 +3114,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" ht="172.8" spans="1:11">
+    <row r="3" ht="244.8" spans="1:11">
       <c r="A3" s="12"/>
       <c r="B3" s="11" t="s">
         <v>64</v>

--- a/DailyRecord/2019年/工作计划 - 2019.xlsx
+++ b/DailyRecord/2019年/工作计划 - 2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
   <si>
     <t>序号</t>
   </si>
@@ -416,7 +416,13 @@
 4、复习STM32时钟
 5、完成外部中断实验
 6、完成窗口看门狗实验
-7、完成通用定时器中断实验</t>
+7、完成通用定时器中断实验
+8、了解了电容触摸按键、OLED显示、、LCD-TFTLCD
+9、学习了DMA、I2C、SPI</t>
+  </si>
+  <si>
+    <t>1、完成SPI、I2C实验。
+2、完成LCD显示实验</t>
   </si>
   <si>
     <t>一、STM32 外部中断
@@ -433,7 +439,10 @@
 1、窗口看门狗的工作过程
 2、窗口看门狗的配置步骤
 五、通用定时器
-1、通用定时器的配置步骤与溢出时间计算</t>
+1、通用定时器的配置步骤与溢出时间计算
+六、I2C
+1、I2C时序：空闲状态、停止状态、数据有效性、应答型号
+2、完成I2C-EEPROM实验（未完成）</t>
   </si>
   <si>
     <t>注意事项</t>
@@ -459,10 +468,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -481,6 +490,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -488,8 +513,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,7 +566,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,29 +574,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -550,7 +597,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,29 +606,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,22 +628,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,7 +661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,7 +679,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,13 +775,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,19 +811,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,109 +835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,6 +916,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -922,13 +949,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,9 +975,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,30 +998,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -997,10 +1006,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1009,133 +1018,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3039,7 +3048,7 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -3114,7 +3123,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" ht="244.8" spans="1:11">
+    <row r="3" ht="302.4" spans="1:11">
       <c r="A3" s="12"/>
       <c r="B3" s="11" t="s">
         <v>64</v>
@@ -3123,10 +3132,12 @@
       <c r="D3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="F3" s="11"/>
       <c r="G3" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -3305,7 +3316,7 @@
         <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>33</v>
@@ -3407,7 +3418,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -3420,13 +3431,13 @@
         <v>43382</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="8"/>

--- a/DailyRecord/2019年/工作计划 - 2019.xlsx
+++ b/DailyRecord/2019年/工作计划 - 2019.xlsx
@@ -451,7 +451,8 @@
   </si>
   <si>
     <t>1、总结编程规范
-2、完成SPI、I2C实验。</t>
+2、完成SPI、I2C实验。
+3、完成ADI实验</t>
   </si>
   <si>
     <t>注意事项</t>
@@ -477,10 +478,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -499,22 +500,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -526,6 +511,30 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -550,6 +559,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -558,25 +574,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,8 +590,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,38 +629,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,7 +671,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,175 +839,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,12 +911,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -959,42 +967,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1013,6 +990,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1021,10 +1016,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1033,137 +1028,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1202,9 +1197,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1613,19 +1605,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1792,19 +1784,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1945,7 +1937,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="7"/>
@@ -1961,7 +1953,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="24"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="8"/>
     </row>
     <row r="4" ht="13.95" customHeight="1" spans="1:10">
@@ -1975,7 +1967,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="24"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10">
@@ -1989,7 +1981,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="24"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10">
@@ -2003,7 +1995,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="24"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:12">
@@ -2017,15 +2009,15 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="24"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="8"/>
-      <c r="L7" s="25"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="4">
@@ -2043,7 +2035,7 @@
     </row>
     <row r="9" ht="129.6" spans="1:10">
       <c r="A9" s="8"/>
-      <c r="B9" s="20"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="4">
         <v>43536</v>
       </c>
@@ -2061,7 +2053,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="8"/>
-      <c r="B10" s="20"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="4">
         <v>43537</v>
       </c>
@@ -2072,11 +2064,11 @@
       <c r="H10" s="6"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="L10" s="25"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8"/>
-      <c r="B11" s="20"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="4">
         <v>43538</v>
       </c>
@@ -2090,7 +2082,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8"/>
-      <c r="B12" s="20"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="4">
         <v>43539</v>
       </c>
@@ -2104,7 +2096,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="4">
         <v>43540</v>
       </c>
@@ -2118,7 +2110,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="9"/>
-      <c r="B14" s="21"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="4">
         <v>43541</v>
       </c>
@@ -2134,7 +2126,7 @@
       <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="4">
@@ -2152,7 +2144,7 @@
     </row>
     <row r="16" ht="43.2" spans="1:10">
       <c r="A16" s="8"/>
-      <c r="B16" s="20"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="4">
         <v>43543</v>
       </c>
@@ -2170,7 +2162,7 @@
     </row>
     <row r="17" ht="172.8" spans="1:10">
       <c r="A17" s="8"/>
-      <c r="B17" s="20"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="4">
         <v>43544</v>
       </c>
@@ -2188,11 +2180,11 @@
     </row>
     <row r="18" ht="201.6" spans="1:10">
       <c r="A18" s="8"/>
-      <c r="B18" s="20"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="4">
         <v>43545</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="6"/>
@@ -2204,7 +2196,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="4">
         <v>43546</v>
       </c>
@@ -2220,7 +2212,7 @@
     </row>
     <row r="20" ht="57.6" spans="1:10">
       <c r="A20" s="8"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="4">
         <v>43547</v>
       </c>
@@ -2238,7 +2230,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="9"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="4">
         <v>43548</v>
       </c>
@@ -2453,7 +2445,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="23"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="7"/>
     </row>
     <row r="3" ht="57.6" spans="1:10">
@@ -2469,7 +2461,7 @@
         <v>60</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="24"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10">
@@ -2483,7 +2475,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="24"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" ht="43.2" spans="1:10">
@@ -2499,7 +2491,7 @@
         <v>61</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="24"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10">
@@ -2513,7 +2505,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="24"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" ht="43.2" spans="1:10">
@@ -2531,7 +2523,7 @@
         <v>63</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="24"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10">
@@ -2545,14 +2537,14 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="24"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="4">
         <v>43198</v>
       </c>
@@ -2566,7 +2558,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="8"/>
-      <c r="B10" s="20"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="4">
         <v>43199</v>
       </c>
@@ -2580,7 +2572,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8"/>
-      <c r="B11" s="20"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="4">
         <v>43200</v>
       </c>
@@ -2594,7 +2586,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8"/>
-      <c r="B12" s="20"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="4">
         <v>43201</v>
       </c>
@@ -2608,7 +2600,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="4">
         <v>43202</v>
       </c>
@@ -2622,7 +2614,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="8"/>
-      <c r="B14" s="20"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="4">
         <v>43203</v>
       </c>
@@ -2636,7 +2628,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="9"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="4">
         <v>43204</v>
       </c>
@@ -2652,7 +2644,7 @@
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="4">
@@ -2668,7 +2660,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="8"/>
-      <c r="B17" s="20"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="4">
         <v>43206</v>
       </c>
@@ -2682,7 +2674,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8"/>
-      <c r="B18" s="20"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="4">
         <v>43207</v>
       </c>
@@ -2696,11 +2688,11 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="4">
         <v>43208</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -2710,7 +2702,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="8"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="4">
         <v>43209</v>
       </c>
@@ -2724,7 +2716,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="8"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="4">
         <v>43210</v>
       </c>
@@ -2738,7 +2730,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="9"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="4">
         <v>43211</v>
       </c>
@@ -2915,7 +2907,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="15"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2923,11 +2915,11 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="18"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="16"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2935,11 +2927,11 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2947,11 +2939,11 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="18"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2959,11 +2951,11 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="18"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="16"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2971,11 +2963,11 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="18"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -2983,11 +2975,11 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="18"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2995,11 +2987,11 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="18"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -3007,11 +2999,11 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="18"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -3019,11 +3011,11 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="18"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -3031,8 +3023,8 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3066,8 +3058,8 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3136,7 +3128,7 @@
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="15"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="2" t="s">
         <v>72</v>
       </c>
@@ -3161,24 +3153,24 @@
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="16"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" ht="28.8" spans="1:11">
+    <row r="4" ht="43.2" spans="1:11">
       <c r="A4" s="12"/>
       <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="6" t="s">
         <v>77</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="16"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:11">
@@ -3191,7 +3183,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="16"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
@@ -3204,7 +3196,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="16"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
@@ -3217,7 +3209,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="16"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
@@ -3230,7 +3222,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="16"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
@@ -3243,7 +3235,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="16"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11">
@@ -3256,11 +3248,11 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="16"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="14"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -3269,7 +3261,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="2"/>
     </row>
   </sheetData>

--- a/DailyRecord/2019年/工作计划 - 2019.xlsx
+++ b/DailyRecord/2019年/工作计划 - 2019.xlsx
@@ -451,8 +451,11 @@
   </si>
   <si>
     <t>1、总结编程规范
-2、完成SPI、I2C实验。
-3、完成ADI实验</t>
+2、完成定时器实验
+3、完成SPI、I2C实验。
+4、完成ADI实验
+5、python包管理办法：poetry和virtualenv
+6、画图pyecharts</t>
   </si>
   <si>
     <t>注意事项</t>
@@ -478,10 +481,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -501,14 +504,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,17 +519,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,22 +548,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,20 +580,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -638,7 +633,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,7 +674,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,163 +848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,16 +915,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,6 +934,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,42 +969,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,6 +1000,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1016,10 +1019,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1028,133 +1031,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3058,8 +3061,8 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3156,7 +3159,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" ht="43.2" spans="1:11">
+    <row r="4" ht="100.8" spans="1:11">
       <c r="A4" s="12"/>
       <c r="B4" s="11" t="s">
         <v>38</v>
@@ -3280,7 +3283,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
